--- a/Stock.xlsx
+++ b/Stock.xlsx
@@ -2,15 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -50,7 +49,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -413,52 +412,280 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:H2"/>
+  <dimension ref="A2:M5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>fvs</t>
+          <t>a1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>noxo</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>lipo+gino</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>s</t>
+          <t>12.3</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>27/06/2023</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>58</v>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>5555</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>246.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>a1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>noxo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>lipo+gino</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>12.9</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>5555</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>258.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>a1</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>noxo</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>lipo+gino</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>12.9</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>5555</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>167.70000000000002</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>v</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>fr</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>r</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>12.9</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>167.700</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/Stock.xlsx
+++ b/Stock.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="768" yWindow="768" windowWidth="17196" windowHeight="8880" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -412,17 +412,20 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:P14"/>
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
     <col width="27" customWidth="1" min="3" max="3"/>
+    <col width="17.109375" customWidth="1" min="16" max="16"/>
+    <col width="18.6640625" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
+    <row r="1"/>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
@@ -449,15 +452,11 @@
           <t>12.3</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>64</v>
       </c>
       <c r="H2" t="n">
         <v>10</v>
@@ -485,6 +484,16 @@
       <c r="M2" t="inlineStr">
         <is>
           <t>246.0</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>2023-09-3</t>
         </is>
       </c>
     </row>
@@ -514,18 +523,14 @@
           <t>12.9</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>65</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -550,6 +555,16 @@
       <c r="M3" t="inlineStr">
         <is>
           <t>258.0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>2023-07-11</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>2023-09-4</t>
         </is>
       </c>
     </row>
@@ -579,18 +594,14 @@
           <t>12.9</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>66</v>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -615,6 +626,16 @@
       <c r="M4" t="inlineStr">
         <is>
           <t>167.70000000000002</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>2023-07-10</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>2023-09-5</t>
         </is>
       </c>
     </row>
@@ -644,18 +665,14 @@
           <t>12.3</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>67</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>80</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -680,6 +697,16 @@
       <c r="M5" t="inlineStr">
         <is>
           <t>246.0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>2023-07-09</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>2023-09-6</t>
         </is>
       </c>
     </row>
@@ -709,20 +736,14 @@
           <t>12.9</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>68</v>
+      </c>
+      <c r="H6" t="n">
+        <v>60</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -747,6 +768,16 @@
       <c r="M6" t="inlineStr">
         <is>
           <t>258.0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>2023-07-08</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>2023-09-7</t>
         </is>
       </c>
     </row>
@@ -776,18 +807,14 @@
           <t>12.9</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>69</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -812,6 +839,16 @@
       <c r="M7" t="inlineStr">
         <is>
           <t>167.70000000000002</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>2023-07-07</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>2023-09-8</t>
         </is>
       </c>
     </row>
@@ -841,18 +878,14 @@
           <t>12.3</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>70</v>
       </c>
       <c r="H8" t="n">
-        <v>17</v>
+        <v>220</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -877,6 +910,16 @@
       <c r="M8" t="inlineStr">
         <is>
           <t>246.0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>2023-07-06</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>2023-09-9</t>
         </is>
       </c>
     </row>
@@ -906,18 +949,14 @@
           <t>12.9</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>71</v>
       </c>
       <c r="H9" t="n">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -942,6 +981,16 @@
       <c r="M9" t="inlineStr">
         <is>
           <t>258.0</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>2023-07-05</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>2023-09-10</t>
         </is>
       </c>
     </row>
@@ -971,18 +1020,14 @@
           <t>12.9</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>72</v>
       </c>
       <c r="H10" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -1007,6 +1052,16 @@
       <c r="M10" t="inlineStr">
         <is>
           <t>167.70000000000002</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>2023-07-04</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>2023-09-11</t>
         </is>
       </c>
     </row>
@@ -1036,18 +1091,14 @@
           <t>123</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>73</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -1086,7 +1137,12 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>2023-06-28</t>
+          <t>2023-07-03</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>2023-09-12</t>
         </is>
       </c>
     </row>
@@ -1116,31 +1172,25 @@
           <t>963</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>74</v>
+      </c>
+      <c r="H12" t="n">
+        <v>499</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>444</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>504</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>444</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="K12" t="inlineStr">
         <is>
           <t>6</t>
@@ -1168,7 +1218,12 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>2023-06-28</t>
+          <t>2023-07-02</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
         </is>
       </c>
     </row>
@@ -1198,18 +1253,14 @@
           <t>230</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>57</t>
-        </is>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>75</v>
       </c>
       <c r="H13" t="n">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -1248,7 +1299,12 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>2023-06-28</t>
+          <t>2023-07-01</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>2023-09-14</t>
         </is>
       </c>
     </row>
@@ -1278,57 +1334,226 @@
           <t>210</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>75</v>
+      </c>
+      <c r="H14" t="n">
+        <v>53</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>hns</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>discount</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>12600.000</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>form name</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>gst no</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>2023-07-01</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>2023-09-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>w1</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>qila2</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>tika5</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>75</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>5555</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>20516.000</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>dr enter</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>45214159541</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>2023-07-01</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>2023-09-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>dfs</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>gvr</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>fgv</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>543</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>543</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>56</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>65</v>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>hns</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>discount</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>66</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>66</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>12600.000</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>form name</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>gst no</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>2023-06-29</t>
+      <c r="G16" t="n">
+        <v>106</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>653</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>rgf</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>frg</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>rgfd</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>rgf</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>354579.000</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>rgf</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>rf</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>2023-07-01</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>2023-10-15</t>
         </is>
       </c>
     </row>
